--- a/BackTest/2019-10-25 BackTest AE.xlsx
+++ b/BackTest/2019-10-25 BackTest AE.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-100</v>
+      </c>
       <c r="L12" t="n">
         <v>243.3</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>3</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>243.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>3</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>243.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>4</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-50</v>
+      </c>
       <c r="L15" t="n">
         <v>242.9</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>15</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-85.71428571428571</v>
+      </c>
       <c r="L16" t="n">
         <v>241.6</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>27</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>241.6</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>27</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>241.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>27</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>241.6</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>36</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-25.71428571428571</v>
+      </c>
       <c r="L20" t="n">
         <v>240.7</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>45</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>2.325581395348837</v>
+      </c>
       <c r="L21" t="n">
         <v>240.7</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>45</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>240.8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>47</v>
       </c>
       <c r="K23" t="n">
-        <v>2.127659574468085</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L23" t="n">
         <v>241</v>
@@ -1466,7 +1488,7 @@
         <v>48</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L24" t="n">
         <v>241.1</v>
@@ -1515,7 +1537,7 @@
         <v>56</v>
       </c>
       <c r="K25" t="n">
-        <v>-14.28571428571428</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L25" t="n">
         <v>240.5</v>
@@ -1564,7 +1586,7 @@
         <v>64</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L26" t="n">
         <v>241.8</v>
@@ -1613,7 +1635,7 @@
         <v>64</v>
       </c>
       <c r="K27" t="n">
-        <v>1.587301587301587</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L27" t="n">
         <v>241.9</v>
@@ -1662,7 +1684,7 @@
         <v>70</v>
       </c>
       <c r="K28" t="n">
-        <v>-7.246376811594203</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L28" t="n">
         <v>241.4</v>
@@ -1711,7 +1733,7 @@
         <v>70</v>
       </c>
       <c r="K29" t="n">
-        <v>-7.246376811594203</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L29" t="n">
         <v>240.9</v>
@@ -1760,7 +1782,7 @@
         <v>71</v>
       </c>
       <c r="K30" t="n">
-        <v>-8.571428571428571</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L30" t="n">
         <v>241.2</v>
@@ -1809,7 +1831,7 @@
         <v>72</v>
       </c>
       <c r="K31" t="n">
-        <v>-7.042253521126761</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L31" t="n">
         <v>240.7</v>
@@ -1860,7 +1882,7 @@
         <v>73</v>
       </c>
       <c r="K32" t="n">
-        <v>-4.225352112676056</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L32" t="n">
         <v>240.3</v>
@@ -1911,7 +1933,7 @@
         <v>74</v>
       </c>
       <c r="K33" t="n">
-        <v>-7.042253521126761</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L33" t="n">
         <v>239.6</v>
@@ -1962,7 +1984,7 @@
         <v>77</v>
       </c>
       <c r="K34" t="n">
-        <v>-10.81081081081081</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L34" t="n">
         <v>238.7</v>
@@ -2013,7 +2035,7 @@
         <v>77</v>
       </c>
       <c r="K35" t="n">
-        <v>-9.58904109589041</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L35" t="n">
         <v>238.6</v>
